--- a/릴레이션.xlsx
+++ b/릴레이션.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,14 @@
   </si>
   <si>
     <t>POINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +753,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -768,7 +776,9 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -864,7 +874,9 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -1109,7 +1121,9 @@
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
